--- a/ig/main/StructureDefinition-cds-bundle-transaction-creation.xlsx
+++ b/ig/main/StructureDefinition-cds-bundle-transaction-creation.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-03T13:05:58+00:00</t>
+    <t>2023-05-03T13:32:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-cds-bundle-transaction-creation.xlsx
+++ b/ig/main/StructureDefinition-cds-bundle-transaction-creation.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10930" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10930" uniqueCount="532">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>CDS_BundleTransactionCreation</t>
+    <t>CDSBundleTransactionCreation</t>
   </si>
   <si>
     <t>Title</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-12T08:01:29+00:00</t>
+    <t>2023-07-03T17:03:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -73,7 +73,7 @@
   </si>
   <si>
     <t>Profil défini dans le volet de Gestion du Cercle de Soins (flux 1c) pour créer un cercle de soins selon l’option Transaction.
-Il s'agit d'un bundle de type "transaction" permettant d'organiser le contenu du flux de création d'un cercle de soins.</t>
+Il s'agit d'un bundle de type `transaction` permettant d'organiser le contenu du flux de création d'un cercle de soins.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -821,7 +821,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-req-met-1:POST si il s’agit d’un nouvel élément ou PUT si il s’agit d’un élément qui existe déjà {value='POST' or value='PUT'}</t>
+req-met:POST s'il s’agit d’un nouvel élément ou PUT s'il s’agit d’un élément qui existe déjà {value='POST' or value='PUT'}</t>
   </si>
   <si>
     <t>Bundle.entry:careTeam.request.url</t>
@@ -943,10 +943,6 @@
     <t>Bundle.entry:patient.request.method</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-req-met-2:POST si il s’agit d’un nouvel élément ou PUT si il s’agit d’un élément qui existe déjà {value='POST' or value='PUT'}</t>
-  </si>
-  <si>
     <t>Bundle.entry:patient.request.url</t>
   </si>
   <si>
@@ -1059,10 +1055,6 @@
     <t>Bundle.entry:relatedPerson.request.method</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-req-met-3:POST si il s’agit d’un nouvel élément ou PUT si il s’agit d’un élément qui existe déjà {value='POST' or value='PUT'}</t>
-  </si>
-  <si>
     <t>Bundle.entry:relatedPerson.request.url</t>
   </si>
   <si>
@@ -1182,10 +1174,6 @@
     <t>Bundle.entry:organization.request.method</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-req-met-4:POST si il s’agit d’un nouvel élément ou PUT si il s’agit d’un élément qui existe déjà {value='POST' or value='PUT'}</t>
-  </si>
-  <si>
     <t>Bundle.entry:organization.request.url</t>
   </si>
   <si>
@@ -1289,10 +1277,6 @@
     <t>Bundle.entry:organizationInterne.request.method</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-req-met-7:POST si il s’agit d’un nouvel élément ou PUT si il s’agit d’un élément qui existe déjà {value='POST' or value='PUT'}</t>
-  </si>
-  <si>
     <t>Bundle.entry:organizationInterne.request.url</t>
   </si>
   <si>
@@ -1408,10 +1392,6 @@
     <t>Bundle.entry:practitionerRoleOrg.request.method</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-req-met-8:POST si il s’agit d’un nouvel élément ou PUT si il s’agit d’un élément qui existe déjà {value='POST' or value='PUT'}</t>
-  </si>
-  <si>
     <t>Bundle.entry:practitionerRoleOrg.request.url</t>
   </si>
   <si>
@@ -1515,10 +1495,6 @@
     <t>Bundle.entry:practitionerRolePro.request.method</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-req-met-5:POST si il s’agit d’un nouvel élément ou PUT si il s’agit d’un élément qui existe déjà {value='POST' or value='PUT'}</t>
-  </si>
-  <si>
     <t>Bundle.entry:practitionerRolePro.request.url</t>
   </si>
   <si>
@@ -1626,10 +1602,6 @@
   </si>
   <si>
     <t>Bundle.entry:practitioner.request.method</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-req-met-6:POST si il s’agit d’un nouvel élément ou PUT si il s’agit d’un élément qui existe déjà {value='POST' or value='PUT'}</t>
   </si>
   <si>
     <t>Bundle.entry:practitioner.request.url</t>
@@ -2759,10 +2731,10 @@
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="S7" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="S7" t="s" s="2">
-        <v>34</v>
       </c>
       <c r="T7" t="s" s="2">
         <v>34</v>
@@ -13041,7 +13013,7 @@
         <v>55</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>294</v>
+        <v>254</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>34</v>
@@ -13058,7 +13030,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>190</v>
@@ -13172,7 +13144,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>194</v>
@@ -13286,7 +13258,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>197</v>
@@ -13400,7 +13372,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>200</v>
@@ -13514,7 +13486,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>203</v>
@@ -13628,7 +13600,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>206</v>
@@ -13740,7 +13712,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>210</v>
@@ -13852,7 +13824,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>211</v>
@@ -13966,7 +13938,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>212</v>
@@ -14082,7 +14054,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>213</v>
@@ -14196,7 +14168,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>216</v>
@@ -14310,7 +14282,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B109" t="s" s="2">
         <v>219</v>
@@ -14424,7 +14396,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B110" t="s" s="2">
         <v>223</v>
@@ -14538,7 +14510,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B111" t="s" s="2">
         <v>227</v>
@@ -14652,13 +14624,13 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B112" t="s" s="2">
         <v>139</v>
       </c>
       <c r="C112" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D112" t="s" s="2">
         <v>34</v>
@@ -14766,7 +14738,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>145</v>
@@ -14878,7 +14850,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B114" t="s" s="2">
         <v>146</v>
@@ -14992,7 +14964,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B115" t="s" s="2">
         <v>147</v>
@@ -15108,7 +15080,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B116" t="s" s="2">
         <v>148</v>
@@ -15220,7 +15192,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B117" t="s" s="2">
         <v>151</v>
@@ -15334,7 +15306,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>155</v>
@@ -15360,13 +15332,13 @@
         <v>34</v>
       </c>
       <c r="K118" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="L118" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="L118" t="s" s="2">
+      <c r="M118" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="M118" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" s="2"/>
@@ -15435,7 +15407,7 @@
         <v>34</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AM118" t="s" s="2">
         <v>34</v>
@@ -15446,7 +15418,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B119" t="s" s="2">
         <v>160</v>
@@ -15558,7 +15530,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B120" t="s" s="2">
         <v>164</v>
@@ -15670,7 +15642,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B121" t="s" s="2">
         <v>165</v>
@@ -15784,7 +15756,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B122" t="s" s="2">
         <v>166</v>
@@ -15900,7 +15872,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>167</v>
@@ -16014,7 +15986,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B124" t="s" s="2">
         <v>173</v>
@@ -16128,7 +16100,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B125" t="s" s="2">
         <v>178</v>
@@ -16240,7 +16212,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B126" t="s" s="2">
         <v>182</v>
@@ -16352,7 +16324,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B127" t="s" s="2">
         <v>183</v>
@@ -16466,7 +16438,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>184</v>
@@ -16582,7 +16554,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B129" t="s" s="2">
         <v>185</v>
@@ -16679,7 +16651,7 @@
         <v>55</v>
       </c>
       <c r="AJ129" t="s" s="2">
-        <v>332</v>
+        <v>254</v>
       </c>
       <c r="AK129" t="s" s="2">
         <v>34</v>
@@ -16696,7 +16668,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B130" t="s" s="2">
         <v>190</v>
@@ -16810,7 +16782,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B131" t="s" s="2">
         <v>194</v>
@@ -16924,7 +16896,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B132" t="s" s="2">
         <v>197</v>
@@ -17038,7 +17010,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>200</v>
@@ -17152,7 +17124,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B134" t="s" s="2">
         <v>203</v>
@@ -17266,7 +17238,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B135" t="s" s="2">
         <v>206</v>
@@ -17378,7 +17350,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B136" t="s" s="2">
         <v>210</v>
@@ -17490,7 +17462,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B137" t="s" s="2">
         <v>211</v>
@@ -17604,7 +17576,7 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>212</v>
@@ -17720,7 +17692,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B139" t="s" s="2">
         <v>213</v>
@@ -17834,7 +17806,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B140" t="s" s="2">
         <v>216</v>
@@ -17948,7 +17920,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B141" t="s" s="2">
         <v>219</v>
@@ -18062,7 +18034,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B142" t="s" s="2">
         <v>223</v>
@@ -18176,7 +18148,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B143" t="s" s="2">
         <v>227</v>
@@ -18290,13 +18262,13 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B144" t="s" s="2">
         <v>139</v>
       </c>
       <c r="C144" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D144" t="s" s="2">
         <v>34</v>
@@ -18404,7 +18376,7 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B145" t="s" s="2">
         <v>145</v>
@@ -18516,7 +18488,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B146" t="s" s="2">
         <v>146</v>
@@ -18630,7 +18602,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B147" t="s" s="2">
         <v>147</v>
@@ -18746,7 +18718,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>148</v>
@@ -18858,7 +18830,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B149" t="s" s="2">
         <v>151</v>
@@ -18972,7 +18944,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B150" t="s" s="2">
         <v>155</v>
@@ -18998,13 +18970,13 @@
         <v>34</v>
       </c>
       <c r="K150" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="L150" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="M150" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="L150" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="M150" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="N150" s="2"/>
       <c r="O150" s="2"/>
@@ -19067,13 +19039,13 @@
         <v>34</v>
       </c>
       <c r="AJ150" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AK150" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AL150" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="AK150" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="AL150" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="AM150" t="s" s="2">
         <v>34</v>
@@ -19084,7 +19056,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B151" t="s" s="2">
         <v>160</v>
@@ -19196,7 +19168,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B152" t="s" s="2">
         <v>164</v>
@@ -19308,7 +19280,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B153" t="s" s="2">
         <v>165</v>
@@ -19422,7 +19394,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B154" t="s" s="2">
         <v>166</v>
@@ -19538,7 +19510,7 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B155" t="s" s="2">
         <v>167</v>
@@ -19652,7 +19624,7 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B156" t="s" s="2">
         <v>173</v>
@@ -19766,7 +19738,7 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B157" t="s" s="2">
         <v>178</v>
@@ -19878,7 +19850,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B158" t="s" s="2">
         <v>182</v>
@@ -19990,7 +19962,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B159" t="s" s="2">
         <v>183</v>
@@ -20104,7 +20076,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B160" t="s" s="2">
         <v>184</v>
@@ -20220,7 +20192,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B161" t="s" s="2">
         <v>185</v>
@@ -20317,7 +20289,7 @@
         <v>55</v>
       </c>
       <c r="AJ161" t="s" s="2">
-        <v>372</v>
+        <v>254</v>
       </c>
       <c r="AK161" t="s" s="2">
         <v>34</v>
@@ -20334,7 +20306,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B162" t="s" s="2">
         <v>190</v>
@@ -20448,7 +20420,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B163" t="s" s="2">
         <v>194</v>
@@ -20562,7 +20534,7 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B164" t="s" s="2">
         <v>197</v>
@@ -20676,7 +20648,7 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B165" t="s" s="2">
         <v>200</v>
@@ -20790,7 +20762,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B166" t="s" s="2">
         <v>203</v>
@@ -20904,7 +20876,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B167" t="s" s="2">
         <v>206</v>
@@ -21016,7 +20988,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B168" t="s" s="2">
         <v>210</v>
@@ -21128,7 +21100,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B169" t="s" s="2">
         <v>211</v>
@@ -21242,7 +21214,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B170" t="s" s="2">
         <v>212</v>
@@ -21358,7 +21330,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B171" t="s" s="2">
         <v>213</v>
@@ -21472,7 +21444,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B172" t="s" s="2">
         <v>216</v>
@@ -21586,7 +21558,7 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B173" t="s" s="2">
         <v>219</v>
@@ -21700,7 +21672,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B174" t="s" s="2">
         <v>223</v>
@@ -21814,7 +21786,7 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B175" t="s" s="2">
         <v>227</v>
@@ -21928,13 +21900,13 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B176" t="s" s="2">
         <v>139</v>
       </c>
       <c r="C176" t="s" s="2">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D176" t="s" s="2">
         <v>34</v>
@@ -22042,7 +22014,7 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B177" t="s" s="2">
         <v>145</v>
@@ -22154,7 +22126,7 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B178" t="s" s="2">
         <v>146</v>
@@ -22268,7 +22240,7 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B179" t="s" s="2">
         <v>147</v>
@@ -22384,7 +22356,7 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B180" t="s" s="2">
         <v>148</v>
@@ -22496,7 +22468,7 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B181" t="s" s="2">
         <v>151</v>
@@ -22610,7 +22582,7 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B182" t="s" s="2">
         <v>155</v>
@@ -22636,13 +22608,13 @@
         <v>34</v>
       </c>
       <c r="K182" t="s" s="2">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="N182" s="2"/>
       <c r="O182" s="2"/>
@@ -22705,13 +22677,13 @@
         <v>34</v>
       </c>
       <c r="AJ182" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AK182" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AL182" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="AK182" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="AL182" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="AM182" t="s" s="2">
         <v>34</v>
@@ -22722,7 +22694,7 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B183" t="s" s="2">
         <v>160</v>
@@ -22834,7 +22806,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B184" t="s" s="2">
         <v>164</v>
@@ -22946,7 +22918,7 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B185" t="s" s="2">
         <v>165</v>
@@ -23060,7 +23032,7 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B186" t="s" s="2">
         <v>166</v>
@@ -23176,7 +23148,7 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B187" t="s" s="2">
         <v>167</v>
@@ -23290,7 +23262,7 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B188" t="s" s="2">
         <v>173</v>
@@ -23404,7 +23376,7 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B189" t="s" s="2">
         <v>178</v>
@@ -23516,7 +23488,7 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B190" t="s" s="2">
         <v>182</v>
@@ -23628,7 +23600,7 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B191" t="s" s="2">
         <v>183</v>
@@ -23742,7 +23714,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B192" t="s" s="2">
         <v>184</v>
@@ -23858,7 +23830,7 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B193" t="s" s="2">
         <v>185</v>
@@ -23955,7 +23927,7 @@
         <v>55</v>
       </c>
       <c r="AJ193" t="s" s="2">
-        <v>407</v>
+        <v>254</v>
       </c>
       <c r="AK193" t="s" s="2">
         <v>34</v>
@@ -23972,7 +23944,7 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B194" t="s" s="2">
         <v>190</v>
@@ -24086,7 +24058,7 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B195" t="s" s="2">
         <v>194</v>
@@ -24200,7 +24172,7 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B196" t="s" s="2">
         <v>197</v>
@@ -24314,7 +24286,7 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B197" t="s" s="2">
         <v>200</v>
@@ -24428,7 +24400,7 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B198" t="s" s="2">
         <v>203</v>
@@ -24542,7 +24514,7 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B199" t="s" s="2">
         <v>206</v>
@@ -24654,7 +24626,7 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B200" t="s" s="2">
         <v>210</v>
@@ -24766,7 +24738,7 @@
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B201" t="s" s="2">
         <v>211</v>
@@ -24880,7 +24852,7 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B202" t="s" s="2">
         <v>212</v>
@@ -24996,7 +24968,7 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B203" t="s" s="2">
         <v>213</v>
@@ -25110,7 +25082,7 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B204" t="s" s="2">
         <v>216</v>
@@ -25224,7 +25196,7 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B205" t="s" s="2">
         <v>219</v>
@@ -25338,7 +25310,7 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B206" t="s" s="2">
         <v>223</v>
@@ -25452,7 +25424,7 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B207" t="s" s="2">
         <v>227</v>
@@ -25566,13 +25538,13 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B208" t="s" s="2">
         <v>139</v>
       </c>
       <c r="C208" t="s" s="2">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D208" t="s" s="2">
         <v>34</v>
@@ -25680,7 +25652,7 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B209" t="s" s="2">
         <v>145</v>
@@ -25792,7 +25764,7 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B210" t="s" s="2">
         <v>146</v>
@@ -25906,7 +25878,7 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B211" t="s" s="2">
         <v>147</v>
@@ -26022,7 +25994,7 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B212" t="s" s="2">
         <v>148</v>
@@ -26134,7 +26106,7 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B213" t="s" s="2">
         <v>151</v>
@@ -26248,7 +26220,7 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B214" t="s" s="2">
         <v>155</v>
@@ -26274,13 +26246,13 @@
         <v>34</v>
       </c>
       <c r="K214" t="s" s="2">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="M214" t="s" s="2">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="N214" s="2"/>
       <c r="O214" s="2"/>
@@ -26346,10 +26318,10 @@
         <v>242</v>
       </c>
       <c r="AK214" t="s" s="2">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="AL214" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="AM214" t="s" s="2">
         <v>34</v>
@@ -26360,7 +26332,7 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B215" t="s" s="2">
         <v>160</v>
@@ -26472,7 +26444,7 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B216" t="s" s="2">
         <v>164</v>
@@ -26584,7 +26556,7 @@
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B217" t="s" s="2">
         <v>165</v>
@@ -26698,7 +26670,7 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B218" t="s" s="2">
         <v>166</v>
@@ -26814,7 +26786,7 @@
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B219" t="s" s="2">
         <v>167</v>
@@ -26928,7 +26900,7 @@
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B220" t="s" s="2">
         <v>173</v>
@@ -27042,7 +27014,7 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B221" t="s" s="2">
         <v>178</v>
@@ -27154,7 +27126,7 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B222" t="s" s="2">
         <v>182</v>
@@ -27266,7 +27238,7 @@
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B223" t="s" s="2">
         <v>183</v>
@@ -27380,7 +27352,7 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B224" t="s" s="2">
         <v>184</v>
@@ -27496,7 +27468,7 @@
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B225" t="s" s="2">
         <v>185</v>
@@ -27593,7 +27565,7 @@
         <v>55</v>
       </c>
       <c r="AJ225" t="s" s="2">
-        <v>446</v>
+        <v>254</v>
       </c>
       <c r="AK225" t="s" s="2">
         <v>34</v>
@@ -27610,7 +27582,7 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="B226" t="s" s="2">
         <v>190</v>
@@ -27724,7 +27696,7 @@
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="B227" t="s" s="2">
         <v>194</v>
@@ -27838,7 +27810,7 @@
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="B228" t="s" s="2">
         <v>197</v>
@@ -27952,7 +27924,7 @@
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="B229" t="s" s="2">
         <v>200</v>
@@ -28066,7 +28038,7 @@
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B230" t="s" s="2">
         <v>203</v>
@@ -28180,7 +28152,7 @@
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="B231" t="s" s="2">
         <v>206</v>
@@ -28292,7 +28264,7 @@
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="B232" t="s" s="2">
         <v>210</v>
@@ -28404,7 +28376,7 @@
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B233" t="s" s="2">
         <v>211</v>
@@ -28518,7 +28490,7 @@
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="B234" t="s" s="2">
         <v>212</v>
@@ -28634,7 +28606,7 @@
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="B235" t="s" s="2">
         <v>213</v>
@@ -28748,7 +28720,7 @@
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="B236" t="s" s="2">
         <v>216</v>
@@ -28862,7 +28834,7 @@
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="B237" t="s" s="2">
         <v>219</v>
@@ -28976,7 +28948,7 @@
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B238" t="s" s="2">
         <v>223</v>
@@ -29090,7 +29062,7 @@
     </row>
     <row r="239">
       <c r="A239" t="s" s="2">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="B239" t="s" s="2">
         <v>227</v>
@@ -29204,13 +29176,13 @@
     </row>
     <row r="240">
       <c r="A240" t="s" s="2">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="B240" t="s" s="2">
         <v>139</v>
       </c>
       <c r="C240" t="s" s="2">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="D240" t="s" s="2">
         <v>34</v>
@@ -29318,7 +29290,7 @@
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="B241" t="s" s="2">
         <v>145</v>
@@ -29430,7 +29402,7 @@
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="B242" t="s" s="2">
         <v>146</v>
@@ -29544,7 +29516,7 @@
     </row>
     <row r="243">
       <c r="A243" t="s" s="2">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="B243" t="s" s="2">
         <v>147</v>
@@ -29660,7 +29632,7 @@
     </row>
     <row r="244">
       <c r="A244" t="s" s="2">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="B244" t="s" s="2">
         <v>148</v>
@@ -29772,7 +29744,7 @@
     </row>
     <row r="245">
       <c r="A245" t="s" s="2">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="B245" t="s" s="2">
         <v>151</v>
@@ -29886,7 +29858,7 @@
     </row>
     <row r="246">
       <c r="A246" t="s" s="2">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="B246" t="s" s="2">
         <v>155</v>
@@ -29912,13 +29884,13 @@
         <v>34</v>
       </c>
       <c r="K246" t="s" s="2">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="L246" t="s" s="2">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="M246" t="s" s="2">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="N246" s="2"/>
       <c r="O246" s="2"/>
@@ -29984,10 +29956,10 @@
         <v>242</v>
       </c>
       <c r="AK246" t="s" s="2">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="AL246" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="AM246" t="s" s="2">
         <v>34</v>
@@ -29998,7 +29970,7 @@
     </row>
     <row r="247">
       <c r="A247" t="s" s="2">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="B247" t="s" s="2">
         <v>160</v>
@@ -30110,7 +30082,7 @@
     </row>
     <row r="248">
       <c r="A248" t="s" s="2">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="B248" t="s" s="2">
         <v>164</v>
@@ -30222,7 +30194,7 @@
     </row>
     <row r="249">
       <c r="A249" t="s" s="2">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="B249" t="s" s="2">
         <v>165</v>
@@ -30336,7 +30308,7 @@
     </row>
     <row r="250">
       <c r="A250" t="s" s="2">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="B250" t="s" s="2">
         <v>166</v>
@@ -30452,7 +30424,7 @@
     </row>
     <row r="251">
       <c r="A251" t="s" s="2">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="B251" t="s" s="2">
         <v>167</v>
@@ -30566,7 +30538,7 @@
     </row>
     <row r="252">
       <c r="A252" t="s" s="2">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="B252" t="s" s="2">
         <v>173</v>
@@ -30680,7 +30652,7 @@
     </row>
     <row r="253">
       <c r="A253" t="s" s="2">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="B253" t="s" s="2">
         <v>178</v>
@@ -30792,7 +30764,7 @@
     </row>
     <row r="254">
       <c r="A254" t="s" s="2">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="B254" t="s" s="2">
         <v>182</v>
@@ -30904,7 +30876,7 @@
     </row>
     <row r="255">
       <c r="A255" t="s" s="2">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="B255" t="s" s="2">
         <v>183</v>
@@ -31018,7 +30990,7 @@
     </row>
     <row r="256">
       <c r="A256" t="s" s="2">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="B256" t="s" s="2">
         <v>184</v>
@@ -31134,7 +31106,7 @@
     </row>
     <row r="257">
       <c r="A257" t="s" s="2">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="B257" t="s" s="2">
         <v>185</v>
@@ -31231,7 +31203,7 @@
         <v>55</v>
       </c>
       <c r="AJ257" t="s" s="2">
-        <v>481</v>
+        <v>254</v>
       </c>
       <c r="AK257" t="s" s="2">
         <v>34</v>
@@ -31248,7 +31220,7 @@
     </row>
     <row r="258">
       <c r="A258" t="s" s="2">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="B258" t="s" s="2">
         <v>190</v>
@@ -31362,7 +31334,7 @@
     </row>
     <row r="259">
       <c r="A259" t="s" s="2">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="B259" t="s" s="2">
         <v>194</v>
@@ -31476,7 +31448,7 @@
     </row>
     <row r="260">
       <c r="A260" t="s" s="2">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B260" t="s" s="2">
         <v>197</v>
@@ -31590,7 +31562,7 @@
     </row>
     <row r="261">
       <c r="A261" t="s" s="2">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="B261" t="s" s="2">
         <v>200</v>
@@ -31704,7 +31676,7 @@
     </row>
     <row r="262">
       <c r="A262" t="s" s="2">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="B262" t="s" s="2">
         <v>203</v>
@@ -31818,7 +31790,7 @@
     </row>
     <row r="263">
       <c r="A263" t="s" s="2">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="B263" t="s" s="2">
         <v>206</v>
@@ -31930,7 +31902,7 @@
     </row>
     <row r="264">
       <c r="A264" t="s" s="2">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="B264" t="s" s="2">
         <v>210</v>
@@ -32042,7 +32014,7 @@
     </row>
     <row r="265">
       <c r="A265" t="s" s="2">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="B265" t="s" s="2">
         <v>211</v>
@@ -32156,7 +32128,7 @@
     </row>
     <row r="266">
       <c r="A266" t="s" s="2">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="B266" t="s" s="2">
         <v>212</v>
@@ -32272,7 +32244,7 @@
     </row>
     <row r="267">
       <c r="A267" t="s" s="2">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="B267" t="s" s="2">
         <v>213</v>
@@ -32386,7 +32358,7 @@
     </row>
     <row r="268">
       <c r="A268" t="s" s="2">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="B268" t="s" s="2">
         <v>216</v>
@@ -32500,7 +32472,7 @@
     </row>
     <row r="269">
       <c r="A269" t="s" s="2">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="B269" t="s" s="2">
         <v>219</v>
@@ -32614,7 +32586,7 @@
     </row>
     <row r="270">
       <c r="A270" t="s" s="2">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="B270" t="s" s="2">
         <v>223</v>
@@ -32728,7 +32700,7 @@
     </row>
     <row r="271">
       <c r="A271" t="s" s="2">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="B271" t="s" s="2">
         <v>227</v>
@@ -32842,13 +32814,13 @@
     </row>
     <row r="272">
       <c r="A272" t="s" s="2">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="B272" t="s" s="2">
         <v>139</v>
       </c>
       <c r="C272" t="s" s="2">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="D272" t="s" s="2">
         <v>34</v>
@@ -32956,7 +32928,7 @@
     </row>
     <row r="273">
       <c r="A273" t="s" s="2">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="B273" t="s" s="2">
         <v>145</v>
@@ -33068,7 +33040,7 @@
     </row>
     <row r="274">
       <c r="A274" t="s" s="2">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="B274" t="s" s="2">
         <v>146</v>
@@ -33182,7 +33154,7 @@
     </row>
     <row r="275">
       <c r="A275" t="s" s="2">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="B275" t="s" s="2">
         <v>147</v>
@@ -33298,7 +33270,7 @@
     </row>
     <row r="276">
       <c r="A276" t="s" s="2">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="B276" t="s" s="2">
         <v>148</v>
@@ -33410,7 +33382,7 @@
     </row>
     <row r="277">
       <c r="A277" t="s" s="2">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="B277" t="s" s="2">
         <v>151</v>
@@ -33524,7 +33496,7 @@
     </row>
     <row r="278">
       <c r="A278" t="s" s="2">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="B278" t="s" s="2">
         <v>155</v>
@@ -33550,13 +33522,13 @@
         <v>34</v>
       </c>
       <c r="K278" t="s" s="2">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="L278" t="s" s="2">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="M278" t="s" s="2">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="N278" s="2"/>
       <c r="O278" s="2"/>
@@ -33622,10 +33594,10 @@
         <v>242</v>
       </c>
       <c r="AK278" t="s" s="2">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="AL278" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="AM278" t="s" s="2">
         <v>34</v>
@@ -33636,7 +33608,7 @@
     </row>
     <row r="279">
       <c r="A279" t="s" s="2">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="B279" t="s" s="2">
         <v>160</v>
@@ -33748,7 +33720,7 @@
     </row>
     <row r="280">
       <c r="A280" t="s" s="2">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="B280" t="s" s="2">
         <v>164</v>
@@ -33860,7 +33832,7 @@
     </row>
     <row r="281">
       <c r="A281" t="s" s="2">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="B281" t="s" s="2">
         <v>165</v>
@@ -33974,7 +33946,7 @@
     </row>
     <row r="282">
       <c r="A282" t="s" s="2">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="B282" t="s" s="2">
         <v>166</v>
@@ -34090,7 +34062,7 @@
     </row>
     <row r="283">
       <c r="A283" t="s" s="2">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="B283" t="s" s="2">
         <v>167</v>
@@ -34204,7 +34176,7 @@
     </row>
     <row r="284">
       <c r="A284" t="s" s="2">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="B284" t="s" s="2">
         <v>173</v>
@@ -34318,7 +34290,7 @@
     </row>
     <row r="285">
       <c r="A285" t="s" s="2">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="B285" t="s" s="2">
         <v>178</v>
@@ -34430,7 +34402,7 @@
     </row>
     <row r="286">
       <c r="A286" t="s" s="2">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="B286" t="s" s="2">
         <v>182</v>
@@ -34542,7 +34514,7 @@
     </row>
     <row r="287">
       <c r="A287" t="s" s="2">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="B287" t="s" s="2">
         <v>183</v>
@@ -34656,7 +34628,7 @@
     </row>
     <row r="288">
       <c r="A288" t="s" s="2">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="B288" t="s" s="2">
         <v>184</v>
@@ -34772,7 +34744,7 @@
     </row>
     <row r="289">
       <c r="A289" t="s" s="2">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="B289" t="s" s="2">
         <v>185</v>
@@ -34869,7 +34841,7 @@
         <v>55</v>
       </c>
       <c r="AJ289" t="s" s="2">
-        <v>518</v>
+        <v>254</v>
       </c>
       <c r="AK289" t="s" s="2">
         <v>34</v>
@@ -34886,7 +34858,7 @@
     </row>
     <row r="290">
       <c r="A290" t="s" s="2">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="B290" t="s" s="2">
         <v>190</v>
@@ -35000,7 +34972,7 @@
     </row>
     <row r="291">
       <c r="A291" t="s" s="2">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="B291" t="s" s="2">
         <v>194</v>
@@ -35114,7 +35086,7 @@
     </row>
     <row r="292">
       <c r="A292" t="s" s="2">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="B292" t="s" s="2">
         <v>197</v>
@@ -35228,7 +35200,7 @@
     </row>
     <row r="293">
       <c r="A293" t="s" s="2">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="B293" t="s" s="2">
         <v>200</v>
@@ -35342,7 +35314,7 @@
     </row>
     <row r="294">
       <c r="A294" t="s" s="2">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="B294" t="s" s="2">
         <v>203</v>
@@ -35456,7 +35428,7 @@
     </row>
     <row r="295">
       <c r="A295" t="s" s="2">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="B295" t="s" s="2">
         <v>206</v>
@@ -35568,7 +35540,7 @@
     </row>
     <row r="296">
       <c r="A296" t="s" s="2">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="B296" t="s" s="2">
         <v>210</v>
@@ -35680,7 +35652,7 @@
     </row>
     <row r="297">
       <c r="A297" t="s" s="2">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="B297" t="s" s="2">
         <v>211</v>
@@ -35794,7 +35766,7 @@
     </row>
     <row r="298">
       <c r="A298" t="s" s="2">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="B298" t="s" s="2">
         <v>212</v>
@@ -35910,7 +35882,7 @@
     </row>
     <row r="299">
       <c r="A299" t="s" s="2">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="B299" t="s" s="2">
         <v>213</v>
@@ -36024,7 +35996,7 @@
     </row>
     <row r="300">
       <c r="A300" t="s" s="2">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="B300" t="s" s="2">
         <v>216</v>
@@ -36138,7 +36110,7 @@
     </row>
     <row r="301">
       <c r="A301" t="s" s="2">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="B301" t="s" s="2">
         <v>219</v>
@@ -36252,7 +36224,7 @@
     </row>
     <row r="302">
       <c r="A302" t="s" s="2">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="B302" t="s" s="2">
         <v>223</v>
@@ -36366,7 +36338,7 @@
     </row>
     <row r="303">
       <c r="A303" t="s" s="2">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="B303" t="s" s="2">
         <v>227</v>
@@ -36480,10 +36452,10 @@
     </row>
     <row r="304">
       <c r="A304" t="s" s="2">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="B304" t="s" s="2">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="C304" s="2"/>
       <c r="D304" t="s" s="2">
@@ -36506,19 +36478,19 @@
         <v>44</v>
       </c>
       <c r="K304" t="s" s="2">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="L304" t="s" s="2">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="M304" t="s" s="2">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="N304" t="s" s="2">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="O304" t="s" s="2">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="P304" t="s" s="2">
         <v>34</v>
@@ -36567,7 +36539,7 @@
         <v>34</v>
       </c>
       <c r="AF304" t="s" s="2">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="AG304" t="s" s="2">
         <v>35</v>

--- a/ig/main/StructureDefinition-cds-bundle-transaction-creation.xlsx
+++ b/ig/main/StructureDefinition-cds-bundle-transaction-creation.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-03T17:03:39+00:00</t>
+    <t>2023-07-03T17:56:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-cds-bundle-transaction-creation.xlsx
+++ b/ig/main/StructureDefinition-cds-bundle-transaction-creation.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-13T09:00:00+00:00</t>
+    <t>2024-02-15T16:01:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
